--- a/xls/square_high_un_16_tri3_18.xlsx
+++ b/xls/square_high_un_16_tri3_18.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-2.192109479139197</v>
+        <v>-1.9929150263871116</v>
       </c>
       <c r="J18">
-        <v>-1.8681348941416767</v>
+        <v>-1.6384878088447463</v>
       </c>
       <c r="K18">
-        <v>-0.23229654949482592</v>
+        <v>0.5188137269209875</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-1.9577970740013828</v>
+        <v>-0.8408128761672645</v>
       </c>
       <c r="J19">
-        <v>-1.6100915013192165</v>
+        <v>-0.7431276970439432</v>
       </c>
       <c r="K19">
-        <v>0.3297167138970486</v>
+        <v>1.6551795093290687</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-1.3086106018189323</v>
+        <v>0.00048497475009879465</v>
       </c>
       <c r="J20">
-        <v>-1.125459684114074</v>
+        <v>4.027161683348516e-5</v>
       </c>
       <c r="K20">
-        <v>1.0155102294845355</v>
+        <v>2.6134387953595053</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-0.5890475108084829</v>
+        <v>1.295415061118438e-5</v>
       </c>
       <c r="J21">
-        <v>-0.5320629056373559</v>
+        <v>-8.454482911463987e-6</v>
       </c>
       <c r="K21">
-        <v>1.7735598608202858</v>
+        <v>2.2341274863913387</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-0.11019181934874256</v>
+        <v>-8.396906614374529e-6</v>
       </c>
       <c r="J22">
-        <v>-0.09790546284127782</v>
+        <v>-8.15945660476349e-6</v>
       </c>
       <c r="K22">
-        <v>2.621991681607396</v>
+        <v>1.9041765552125853</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-8.051500955210785e-5</v>
+        <v>-1.2496225965711226e-6</v>
       </c>
       <c r="J23">
-        <v>-0.00014569944873684947</v>
+        <v>-2.368341219471241e-6</v>
       </c>
       <c r="K23">
-        <v>2.631451659173155</v>
+        <v>1.7359740485454167</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-1.6460654473635946e-5</v>
+        <v>-2.5602712227540294e-6</v>
       </c>
       <c r="J24">
-        <v>-2.4592132991256494e-5</v>
+        <v>-2.808407807633728e-6</v>
       </c>
       <c r="K24">
-        <v>2.2372323774222678</v>
+        <v>1.6971848715163764</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-1.0186375780405679e-5</v>
+        <v>-1.4788361690703325e-6</v>
       </c>
       <c r="J25">
-        <v>-1.1301568687720566e-5</v>
+        <v>-1.699032167713763e-6</v>
       </c>
       <c r="K25">
-        <v>2.022912628867501</v>
+        <v>1.6026140164789455</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-6.003262080423347e-6</v>
+        <v>-1.2322725594558699e-6</v>
       </c>
       <c r="J26">
-        <v>-6.724160203559646e-6</v>
+        <v>-1.394026213310097e-6</v>
       </c>
       <c r="K26">
-        <v>1.9029334844337278</v>
+        <v>1.5551333408373174</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-4.218505281771363e-6</v>
+        <v>-8.615159441519392e-7</v>
       </c>
       <c r="J27">
-        <v>-4.557815992957275e-6</v>
+        <v>-1.0558982136433881e-6</v>
       </c>
       <c r="K27">
-        <v>1.8107060789028138</v>
+        <v>1.5099448701925522</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-3.2412867322948098e-6</v>
+        <v>-1.4424950886856096e-6</v>
       </c>
       <c r="J28">
-        <v>-3.524496778248122e-6</v>
+        <v>-1.3892958475770652e-6</v>
       </c>
       <c r="K28">
-        <v>1.7577244593555377</v>
+        <v>1.5155392176891544</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-2.5976854641676604e-6</v>
+        <v>-1.5005734908624083e-6</v>
       </c>
       <c r="J29">
-        <v>-2.670031696730614e-6</v>
+        <v>-1.399782892546211e-6</v>
       </c>
       <c r="K29">
-        <v>1.683718707186725</v>
+        <v>1.511569704221624</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-1.9672397881764496e-6</v>
+        <v>-9.254948360844261e-7</v>
       </c>
       <c r="J30">
-        <v>-2.19236205507998e-6</v>
+        <v>-9.599963863847797e-7</v>
       </c>
       <c r="K30">
-        <v>1.656278647863756</v>
+        <v>1.4541836624257678</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-1.251335652728525e-6</v>
+        <v>-9.152601047717628e-7</v>
       </c>
       <c r="J31">
-        <v>-1.5054474105025633e-6</v>
+        <v>-9.301250223103607e-7</v>
       </c>
       <c r="K31">
-        <v>1.5920357275706096</v>
+        <v>1.4452418727918945</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-1.4605135907439848e-6</v>
+        <v>-7.820059772047147e-7</v>
       </c>
       <c r="J32">
-        <v>-1.6009843390036997e-6</v>
+        <v>-7.906716265405891e-7</v>
       </c>
       <c r="K32">
-        <v>1.5853900104924186</v>
+        <v>1.4060882771889396</v>
       </c>
     </row>
   </sheetData>
